--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1990316.293824566</v>
+        <v>1988059.271915482</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>27.8629879595168</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>149.5761467139242</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.80276983270129</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164005257</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761492</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>50.55596175061104</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.26989189552353</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>15.42290135054882</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.5873298926974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534539</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>90.41948680756552</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8518738257484</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,13 +2293,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>236.1554173843089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>133.2205257453335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>246.2974480831049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534552</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>15.44847849679196</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>28.59202620056939</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,10 +2767,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.34931970216475</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>45.10723554369685</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9212967840865</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.8997419050259</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164188</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>140.7044055518735</v>
+        <v>0.2155932606158093</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433874</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124559</v>
+        <v>49.37728379124666</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404354</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1759.555763042629</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1390.593246102217</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1032.327547495467</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>646.5392948972226</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>235.553390107615</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.76667303138</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.804156090968</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>1001.804156090968</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>616.0159034927237</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>205.0299987031162</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>502.725111861912</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,16 +5045,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,28 +5130,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.5901955154785</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="C13" t="n">
-        <v>452.5901955154787</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="D13" t="n">
-        <v>452.5901955154787</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E13" t="n">
-        <v>304.6771019330856</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F13" t="n">
-        <v>304.6771019330856</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799874</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593987</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>901.372325557026</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590086</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154785</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5282,22 +5282,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.7782212305366</v>
+        <v>278.8425593065531</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>278.8425593065531</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>278.8425593065531</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>278.8425593065531</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5449,7 +5449,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5470,16 +5470,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783402</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413796</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433623</v>
+        <v>681.283603280323</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.7782212305366</v>
+        <v>460.4910241367928</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,10 +5598,10 @@
         <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5622,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208127</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1352.099436442225</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5829,28 +5829,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.3941514382107</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C22" t="n">
-        <v>557.3941514382107</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>557.3941514382107</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,10 +5908,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.376021052697</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W22" t="n">
-        <v>959.8351954119805</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>959.8351954119805</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.0426162684504</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,28 +5990,28 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>529.525731183237</v>
+        <v>399.0634049978504</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553301</v>
+        <v>230.1272220699435</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>230.1272220699435</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>230.1272220699435</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>230.1272220699435</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208124</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>750.3183103267671</v>
+        <v>619.8559841413805</v>
       </c>
       <c r="X25" t="n">
-        <v>750.3183103267671</v>
+        <v>619.8559841413805</v>
       </c>
       <c r="Y25" t="n">
-        <v>529.525731183237</v>
+        <v>399.0634049978504</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690178</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143016</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551638</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>323.5285488293692</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.85891762269</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294615</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353397</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6294,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>425.7583423057192</v>
+        <v>589.1512925299513</v>
       </c>
       <c r="C28" t="n">
-        <v>425.7583423057192</v>
+        <v>589.1512925299513</v>
       </c>
       <c r="D28" t="n">
-        <v>425.7583423057192</v>
+        <v>439.0346531176156</v>
       </c>
       <c r="E28" t="n">
-        <v>425.7583423057192</v>
+        <v>439.0346531176156</v>
       </c>
       <c r="F28" t="n">
-        <v>278.8683948078088</v>
+        <v>292.1447056197052</v>
       </c>
       <c r="G28" t="n">
-        <v>111.1655581825278</v>
+        <v>124.4418689944241</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839447</v>
+        <v>124.4418689944241</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384227</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5404723472667</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5509214492494</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7583423057192</v>
+        <v>770.7997573601911</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.72099106869</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7848081407828</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6681687284471</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6681687284471</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1882.253244183325</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1882.253244183325</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T31" t="n">
-        <v>1882.253244183325</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.253244183325</v>
+        <v>1407.497645073032</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.568755977438</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.151585940477</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.16203504246</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3694558989297</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="32">
@@ -6707,10 +6707,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.750360443163</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O32" t="n">
         <v>3800.7228313225</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>391.8664332433621</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8664332433621</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463048</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6883,25 +6883,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>909.27315417834</v>
+        <v>1225.889052788861</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413794</v>
+        <v>936.4718827519</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433621</v>
+        <v>708.4823318538827</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.8664332433621</v>
+        <v>487.6897527103525</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6938,43 +6938,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4055.47777398904</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>388.2302264612119</v>
+        <v>487.7156710235493</v>
       </c>
       <c r="C37" t="n">
-        <v>388.2302264612119</v>
+        <v>487.7156710235493</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612119</v>
+        <v>338.6659561449565</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125618</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>191.8197870963062</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152494</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.367726499267</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
         <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988876</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349445</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452714</v>
+        <v>1464.626824743984</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112101</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1123.228752938491</v>
+        <v>1176.373111433051</v>
       </c>
       <c r="W37" t="n">
-        <v>834.8785074352734</v>
+        <v>888.0228659298334</v>
       </c>
       <c r="X37" t="n">
-        <v>607.955881070999</v>
+        <v>888.0228659298334</v>
       </c>
       <c r="Y37" t="n">
-        <v>388.2302264612119</v>
+        <v>668.2972113200461</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,7 +7290,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215066</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416729</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774104</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430906</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932526</v>
+        <v>364.4578361932536</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160458</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819769</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7360,22 +7360,22 @@
         <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195775</v>
       </c>
       <c r="V40" t="n">
         <v>1518.564400937961</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.05694589913</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036724</v>
+        <v>922.7139997036729</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7412,25 +7412,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7549,13 +7549,13 @@
         <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,25 +7649,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O44" t="n">
-        <v>3517.878731871643</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P44" t="n">
-        <v>4231.233819318589</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992653</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>248.8400772687158</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>285.7011105564208</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>64.28566532692469</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>285.6623071682326</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>103.7862464855133</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476856</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>329.4296048068269</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476847</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10355,13 +10355,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>292.568571519122</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>304.73518059997</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>20.70318561719034</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>241.9338129178247</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>231.5010718068644</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>238.2160185885842</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>129.2760184313263</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.7559163635047</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>129.9981466723825</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.99732345939739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>76.82733429106231</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>27.98010635618891</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.36758095228213</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>32.80528251369469</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>40.22555025348612</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>129.3065364175288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>67.7603942092687</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.58283296788265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>241.104602661916</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6941762341258959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983816</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.23790141880212</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143251</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164176</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>110.3769824835489</v>
+        <v>250.8657947748067</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-9.612311074890364e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.874097537014488e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.938449528681281e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871081.4201965239</v>
+        <v>871081.4201965238</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871081.4201965239</v>
+        <v>871081.4201965238</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871081.4201965238</v>
+        <v>871081.4201965239</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871731.1150503833</v>
+        <v>871731.1150503831</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583908</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974272</v>
+      </c>
+      <c r="F2" t="n">
         <v>536060.4122974273</v>
-      </c>
-      <c r="F2" t="n">
-        <v>536060.4122974275</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974273</v>
@@ -26335,22 +26335,22 @@
         <v>536060.4122974273</v>
       </c>
       <c r="J2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="K2" t="n">
         <v>536060.4122974272</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>536060.4122974271</v>
       </c>
-      <c r="L2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="M2" t="n">
-        <v>536468.3602289195</v>
+        <v>536468.3602289199</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="P2" t="n">
         <v>554203.1946583918</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414954</v>
+        <v>36735.10506414968</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
@@ -26430,31 +26430,31 @@
         <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918987</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811456</v>
+        <v>18496.05294811455</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26485,22 +26485,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766905</v>
+        <v>-301972.4494766908</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378534</v>
+        <v>287995.4297378541</v>
       </c>
       <c r="D6" t="n">
         <v>287995.4297378536</v>
       </c>
       <c r="E6" t="n">
-        <v>-305849.0122688827</v>
+        <v>-305916.2077591089</v>
       </c>
       <c r="F6" t="n">
-        <v>421528.401724524</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="G6" t="n">
-        <v>421528.4017245237</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="H6" t="n">
-        <v>421528.4017245236</v>
+        <v>421461.2062342978</v>
       </c>
       <c r="I6" t="n">
-        <v>421528.4017245236</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="J6" t="n">
-        <v>245105.1825319306</v>
+        <v>245037.9870417051</v>
       </c>
       <c r="K6" t="n">
-        <v>421528.4017245235</v>
+        <v>421461.2062342978</v>
       </c>
       <c r="L6" t="n">
-        <v>421528.4017245239</v>
+        <v>421461.2062342977</v>
       </c>
       <c r="M6" t="n">
-        <v>291012.6716315811</v>
+        <v>290946.9870596206</v>
       </c>
       <c r="N6" t="n">
-        <v>383529.7652827312</v>
+        <v>383529.7652827309</v>
       </c>
       <c r="O6" t="n">
-        <v>420264.8703468807</v>
+        <v>420264.8703468806</v>
       </c>
       <c r="P6" t="n">
         <v>420264.8703468806</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,7 +26811,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="K4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405642</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018692</v>
+        <v>45.9188813301871</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>385.9211820612782</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>264.2080233068708</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>96.44405126592655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887357</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080635</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562131</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155133</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405577</v>
+        <v>1.056255288405448</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>296.222741532893</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,10 +35422,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>756.893078156935</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35650,10 +35650,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>824.6222263866475</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35662,13 +35662,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>616.5875007398362</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>741.2524215605648</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778455</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>230.2702165464391</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400177</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597712</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>881.7314402197384</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359038</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
@@ -37075,13 +37075,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>844.8704069320335</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>812.7881814881891</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306616</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>419.4651718365622</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.6346719014718</v>
+        <v>46.63467190147167</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818894</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.013326433516</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629924</v>
+        <v>79.45049382629911</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>697.523927310157</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859626</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165873</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,19 +37780,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>770.4221876370912</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>777.137134418811</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
